--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3130.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3130.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.093371593072941</v>
+        <v>1.567823529243469</v>
       </c>
       <c r="B1">
-        <v>1.451508312663914</v>
+        <v>1.733191132545471</v>
       </c>
       <c r="C1">
-        <v>2.32353485120313</v>
+        <v>1.758923411369324</v>
       </c>
       <c r="D1">
-        <v>5.175786446630128</v>
+        <v>2.33620810508728</v>
       </c>
       <c r="E1">
-        <v>2.675172311450374</v>
+        <v>3.979049921035767</v>
       </c>
     </row>
   </sheetData>
